--- a/примеры + рекомендации/Пример решения ДЕМО/Ресурсы/Жюри_import/жюри.xlsx
+++ b/примеры + рекомендации/Пример решения ДЕМО/Ресурсы/Жюри_import/жюри.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfca17eb6a1f379e/Рабочий стол/жюри/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Me\Repos\ПРдБ\примеры + рекомендации\Пример решения ДЕМО\Ресурсы\Жюри_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F230125-1182-46B0-9B20-2603C1E56BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E570465E-3BA2-45DC-B937-5FD21BB837AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17652" yWindow="1848" windowWidth="17280" windowHeight="9420" xr2:uid="{1263D430-3F9C-4244-904D-1EFC962333A9}"/>
+    <workbookView xWindow="22932" yWindow="2076" windowWidth="23256" windowHeight="12576" xr2:uid="{1263D430-3F9C-4244-904D-1EFC962333A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>ФИО</t>
   </si>
@@ -60,42 +63,6 @@
     <t>фото</t>
   </si>
   <si>
-    <t>мужской</t>
-  </si>
-  <si>
-    <t>женский</t>
-  </si>
-  <si>
-    <t>Белякова Руслана Феликсовна</t>
-  </si>
-  <si>
-    <t>Егорова Аэлита Валерьяновна</t>
-  </si>
-  <si>
-    <t>Пономарёва Аюна Евсеевна</t>
-  </si>
-  <si>
-    <t>Кузьмина Харитина Вениаминовна</t>
-  </si>
-  <si>
-    <t>Мишина Глафира Христофоровна</t>
-  </si>
-  <si>
-    <t>Захарова Алика Сергеевна</t>
-  </si>
-  <si>
-    <t>Борисов Даниил Улебович</t>
-  </si>
-  <si>
-    <t>Шаров Виктор Мэлсович</t>
-  </si>
-  <si>
-    <t>Белозёров Герасим Рубенович</t>
-  </si>
-  <si>
-    <t>Гурьев Феликс Авдеевич</t>
-  </si>
-  <si>
     <t>7(343)193-85-18</t>
   </si>
   <si>
@@ -250,6 +217,99 @@
   </si>
   <si>
     <t>shanahan.louie@hartmann.com</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Борисов</t>
+  </si>
+  <si>
+    <t>Даниил</t>
+  </si>
+  <si>
+    <t>Улебович</t>
+  </si>
+  <si>
+    <t>Белякова</t>
+  </si>
+  <si>
+    <t>Руслана</t>
+  </si>
+  <si>
+    <t>Феликсовна</t>
+  </si>
+  <si>
+    <t>Егорова</t>
+  </si>
+  <si>
+    <t>Аэлита</t>
+  </si>
+  <si>
+    <t>Валерьяновна</t>
+  </si>
+  <si>
+    <t>Белозёров</t>
+  </si>
+  <si>
+    <t>Герасим</t>
+  </si>
+  <si>
+    <t>Рубенович</t>
+  </si>
+  <si>
+    <t>Пономарёва</t>
+  </si>
+  <si>
+    <t>Аюна</t>
+  </si>
+  <si>
+    <t>Евсеевна</t>
+  </si>
+  <si>
+    <t>Шаров</t>
+  </si>
+  <si>
+    <t>Виктор</t>
+  </si>
+  <si>
+    <t>Мэлсович</t>
+  </si>
+  <si>
+    <t>Гурьев</t>
+  </si>
+  <si>
+    <t>Феликс</t>
+  </si>
+  <si>
+    <t>Авдеевич</t>
+  </si>
+  <si>
+    <t>Кузьмина</t>
+  </si>
+  <si>
+    <t>Харитина</t>
+  </si>
+  <si>
+    <t>Вениаминовна</t>
+  </si>
+  <si>
+    <t>Мишина</t>
+  </si>
+  <si>
+    <t>Глафира</t>
+  </si>
+  <si>
+    <t>Христофоровна</t>
+  </si>
+  <si>
+    <t>Захарова</t>
+  </si>
+  <si>
+    <t>Алика</t>
+  </si>
+  <si>
+    <t>Сергеевна</t>
   </si>
 </sst>
 </file>
@@ -659,356 +719,454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D6CC27-D25C-428D-A08B-711464B5A878}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="A2" sqref="A2:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7">
+        <v>19669</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7">
+        <v>21927</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2">
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F11" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="G11" s="7">
+        <v>26580</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
         <v>43</v>
       </c>
-      <c r="E4">
-        <v>32</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
         <v>57</v>
       </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5">
-        <v>53</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6">
-        <v>24</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="7">
-        <v>19669</v>
-      </c>
-      <c r="E7">
-        <v>14</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8">
-        <v>85</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="7">
-        <v>21927</v>
-      </c>
-      <c r="E9">
-        <v>92</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10">
-        <v>52</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="7">
-        <v>26580</v>
-      </c>
-      <c r="E11">
-        <v>23</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C00B1EEF-33E2-4E2A-AA4D-E4D14E42EC15}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{63D6F11F-31C6-4047-B096-49FAB6E8BD78}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{9DFB9AB1-0DDA-45B6-AEF9-2EAE6159327D}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{CAC3F4DA-94E9-4504-B2FA-C01696D8A7F4}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{EA068FB1-0FD2-4DBA-9BC4-E35D9781C877}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{C00B1EEF-33E2-4E2A-AA4D-E4D14E42EC15}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{63D6F11F-31C6-4047-B096-49FAB6E8BD78}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{9DFB9AB1-0DDA-45B6-AEF9-2EAE6159327D}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{CAC3F4DA-94E9-4504-B2FA-C01696D8A7F4}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{EA068FB1-0FD2-4DBA-9BC4-E35D9781C877}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
